--- a/results/191010-AB44-1911_2019_FPAW_-_Women-Pairs.xlsx
+++ b/results/191010-AB44-1911_2019_FPAW_-_Women-Pairs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kolja\Nextcloud\Documents\Frisbee\Rankings\Turniere-berechnet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FpaExcelResultsParser\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{039949CE-DC72-45DD-950C-9D690CD585A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DB9646-38F8-4B42-A091-6621012240A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="450" windowWidth="21960" windowHeight="15750" xr2:uid="{58E641C6-DED4-4F9C-BDCE-B05D14810C6B}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_berechnungsmonat">[1]workflow!$E$3</definedName>
-    <definedName name="_FilterDatabase" localSheetId="0" hidden="1">'AB44'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AB44'!#REF!</definedName>
     <definedName name="All_Divisions">[1]Dropdown!$G$3:$G$8</definedName>
     <definedName name="Bonus">[1]Bonus!$A$2:$B$201</definedName>
     <definedName name="Categories">[1]Dropdown!$D$3:$D$8</definedName>
@@ -30,7 +30,7 @@
     <definedName name="players_sorted2">'[1]Open Rankings'!$C$4:$C$2000</definedName>
     <definedName name="pointscale">[1]event_details!$FB$104:$IT$105</definedName>
     <definedName name="Pools">[1]Dropdown!$F$3:$F$10</definedName>
-    <definedName name="Print_Area" localSheetId="0">'AB44'!$A$1:$S$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'AB44'!$A$1:$S$54</definedName>
     <definedName name="Rounds">[1]Dropdown!$E$3:$E$8</definedName>
     <definedName name="table_countrycodes">[1]Dropdown!$I$3:$J$208</definedName>
     <definedName name="Women_Divisions">[1]Dropdown!$B$3:$B$5</definedName>
@@ -40,12 +40,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -204,10 +198,10 @@
     <t>Eventcode:</t>
   </si>
   <si>
-    <t>FPAW 2019 - Women Pairs</t>
+    <t>Event:</t>
   </si>
   <si>
-    <t>Event:</t>
+    <t>FPAW 2019</t>
   </si>
 </sst>
 </file>
@@ -1157,125 +1151,379 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1283,41 +1531,31 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -1325,253 +1563,103 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1579,203 +1667,109 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="6" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="6" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="6" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -1832,6 +1826,7 @@
     <sheetNames>
       <sheetName val="AB46"/>
       <sheetName val="AB45"/>
+      <sheetName val="AB44"/>
       <sheetName val="Manual"/>
       <sheetName val="workflow"/>
       <sheetName val="Open"/>
@@ -1854,25 +1849,28 @@
       <sheetName val="eventlist"/>
       <sheetName val="Open Rankings"/>
       <sheetName val="Bonus"/>
+      <sheetName val="AB43"/>
+      <sheetName val="AB42"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
         <row r="3">
           <cell r="E3">
             <v>43770</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
         <row r="104">
           <cell r="FB104">
             <v>4</v>
@@ -2460,13 +2458,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17">
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18">
         <row r="1">
           <cell r="H1" t="str">
             <v>yes</v>
@@ -4228,11 +4226,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
-      <sheetData sheetId="22">
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23">
         <row r="4">
           <cell r="C4" t="str">
             <v/>
@@ -9924,7 +9922,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="23">
+      <sheetData sheetId="24">
         <row r="2">
           <cell r="A2">
             <v>1</v>
@@ -11526,13 +11524,15 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11836,95 +11836,95 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="G28" sqref="G28"/>
-      <selection pane="topRight" activeCell="G29" sqref="G29"/>
+      <selection pane="topRight" activeCell="J2" sqref="J2:S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="10.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.3984375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.73046875" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="4.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.59765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.265625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.265625" style="1" customWidth="1"/>
     <col min="10" max="10" width="1" style="1" customWidth="1"/>
-    <col min="11" max="17" width="7.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="7.85546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="2.42578125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="18.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="6.42578125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="8.85546875" style="3" customWidth="1"/>
-    <col min="24" max="24" width="8.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="2.7109375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" style="2"/>
-    <col min="27" max="16384" width="11.5703125" style="1"/>
+    <col min="11" max="17" width="7.265625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.265625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="7.86328125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="2.3984375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="18.73046875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="6.3984375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8.86328125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="8.86328125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="2.73046875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="11.59765625" style="2"/>
+    <col min="27" max="16384" width="11.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="170" t="s">
+    <row r="1" spans="1:26" ht="10.9" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="104" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="159" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="168" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="166"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="161"/>
     </row>
-    <row r="3" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="151" t="s">
+    <row r="3" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="149" t="s">
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="148"/>
-      <c r="O3" s="148"/>
-      <c r="P3" s="148"/>
-      <c r="Q3" s="148"/>
-      <c r="R3" s="148"/>
-      <c r="S3" s="147"/>
-      <c r="V3" s="165"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="147"/>
+      <c r="N3" s="147"/>
+      <c r="O3" s="147"/>
+      <c r="P3" s="147"/>
+      <c r="Q3" s="147"/>
+      <c r="R3" s="147"/>
+      <c r="S3" s="148"/>
+      <c r="V3" s="102"/>
     </row>
-    <row r="4" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="155" t="s">
+    <row r="4" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="154"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="164">
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="162">
         <v>43748</v>
       </c>
       <c r="K4" s="163"/>
@@ -11935,470 +11935,470 @@
       <c r="P4" s="163"/>
       <c r="Q4" s="163"/>
       <c r="R4" s="163"/>
-      <c r="S4" s="162"/>
+      <c r="S4" s="164"/>
     </row>
-    <row r="5" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="151" t="s">
+    <row r="5" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="149" t="s">
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="148"/>
-      <c r="N5" s="148"/>
-      <c r="O5" s="148"/>
-      <c r="P5" s="148"/>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="148"/>
-      <c r="S5" s="147"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="147"/>
+      <c r="M5" s="147"/>
+      <c r="N5" s="147"/>
+      <c r="O5" s="147"/>
+      <c r="P5" s="147"/>
+      <c r="Q5" s="147"/>
+      <c r="R5" s="147"/>
+      <c r="S5" s="148"/>
     </row>
-    <row r="6" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="155" t="s">
+    <row r="6" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="161">
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="165">
         <v>12</v>
       </c>
-      <c r="K6" s="160"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="160"/>
-      <c r="N6" s="160"/>
-      <c r="O6" s="160"/>
-      <c r="P6" s="160"/>
-      <c r="Q6" s="160"/>
-      <c r="R6" s="160"/>
-      <c r="S6" s="159"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="166"/>
+      <c r="O6" s="166"/>
+      <c r="P6" s="166"/>
+      <c r="Q6" s="166"/>
+      <c r="R6" s="166"/>
+      <c r="S6" s="167"/>
     </row>
-    <row r="7" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="151" t="s">
+    <row r="7" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="150"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="158">
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="168">
         <v>1.6</v>
       </c>
-      <c r="K7" s="157"/>
-      <c r="L7" s="157"/>
-      <c r="M7" s="157"/>
-      <c r="N7" s="157"/>
-      <c r="O7" s="157"/>
-      <c r="P7" s="157"/>
-      <c r="Q7" s="157"/>
-      <c r="R7" s="157"/>
-      <c r="S7" s="156"/>
+      <c r="K7" s="169"/>
+      <c r="L7" s="169"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="169"/>
+      <c r="P7" s="169"/>
+      <c r="Q7" s="169"/>
+      <c r="R7" s="169"/>
+      <c r="S7" s="170"/>
     </row>
-    <row r="8" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="155" t="s">
+    <row r="8" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="143" t="s">
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="142"/>
-      <c r="L8" s="142"/>
-      <c r="M8" s="142"/>
-      <c r="N8" s="142"/>
-      <c r="O8" s="142"/>
-      <c r="P8" s="142" t="s">
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="Q8" s="142"/>
-      <c r="R8" s="142"/>
-      <c r="S8" s="141"/>
+      <c r="Q8" s="150"/>
+      <c r="R8" s="150"/>
+      <c r="S8" s="151"/>
     </row>
-    <row r="9" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="151" t="s">
+    <row r="9" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="150"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="149" t="s">
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="148"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="148"/>
-      <c r="N9" s="148"/>
-      <c r="O9" s="148"/>
-      <c r="P9" s="148" t="s">
+      <c r="K9" s="147"/>
+      <c r="L9" s="147"/>
+      <c r="M9" s="147"/>
+      <c r="N9" s="147"/>
+      <c r="O9" s="147"/>
+      <c r="P9" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="Q9" s="148"/>
-      <c r="R9" s="148"/>
-      <c r="S9" s="147"/>
+      <c r="Q9" s="147"/>
+      <c r="R9" s="147"/>
+      <c r="S9" s="148"/>
     </row>
-    <row r="10" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="155" t="s">
+    <row r="10" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="154"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="143"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="142"/>
-      <c r="M10" s="142"/>
-      <c r="N10" s="142"/>
-      <c r="O10" s="142"/>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="153"/>
-      <c r="S10" s="152"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="149"/>
+      <c r="K10" s="150"/>
+      <c r="L10" s="150"/>
+      <c r="M10" s="150"/>
+      <c r="N10" s="150"/>
+      <c r="O10" s="150"/>
+      <c r="P10" s="157"/>
+      <c r="Q10" s="157"/>
+      <c r="R10" s="157"/>
+      <c r="S10" s="158"/>
     </row>
-    <row r="11" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="151" t="s">
+    <row r="11" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="150"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="149">
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="146">
         <v>1911</v>
       </c>
-      <c r="K11" s="148"/>
-      <c r="L11" s="148"/>
-      <c r="M11" s="148"/>
-      <c r="N11" s="148"/>
-      <c r="O11" s="148"/>
-      <c r="P11" s="148"/>
-      <c r="Q11" s="148"/>
-      <c r="R11" s="148"/>
-      <c r="S11" s="147"/>
-      <c r="W11" s="146"/>
+      <c r="K11" s="147"/>
+      <c r="L11" s="147"/>
+      <c r="M11" s="147"/>
+      <c r="N11" s="147"/>
+      <c r="O11" s="147"/>
+      <c r="P11" s="147"/>
+      <c r="Q11" s="147"/>
+      <c r="R11" s="147"/>
+      <c r="S11" s="148"/>
+      <c r="W11" s="97"/>
     </row>
-    <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="145" t="s">
+    <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="143" t="s">
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="142"/>
-      <c r="L12" s="142"/>
-      <c r="M12" s="142"/>
-      <c r="N12" s="142"/>
-      <c r="O12" s="142"/>
-      <c r="P12" s="142"/>
-      <c r="Q12" s="142"/>
-      <c r="R12" s="142"/>
-      <c r="S12" s="141"/>
-      <c r="U12" s="140"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="150"/>
+      <c r="M12" s="150"/>
+      <c r="N12" s="150"/>
+      <c r="O12" s="150"/>
+      <c r="P12" s="150"/>
+      <c r="Q12" s="150"/>
+      <c r="R12" s="150"/>
+      <c r="S12" s="151"/>
+      <c r="U12" s="94"/>
     </row>
-    <row r="13" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="139"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="136"/>
-      <c r="M13" s="136"/>
-      <c r="N13" s="136"/>
-      <c r="O13" s="136"/>
-      <c r="P13" s="136"/>
-      <c r="Q13" s="136"/>
-      <c r="R13" s="136"/>
-      <c r="S13" s="135"/>
+    <row r="13" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="152"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="153"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="154"/>
+      <c r="K13" s="155"/>
+      <c r="L13" s="155"/>
+      <c r="M13" s="155"/>
+      <c r="N13" s="155"/>
+      <c r="O13" s="155"/>
+      <c r="P13" s="155"/>
+      <c r="Q13" s="155"/>
+      <c r="R13" s="155"/>
+      <c r="S13" s="156"/>
     </row>
-    <row r="14" spans="1:26" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="X14" s="45"/>
+    <row r="14" spans="1:26" ht="10.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="X14" s="38"/>
     </row>
-    <row r="15" spans="1:26" s="45" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="134" t="s">
+    <row r="15" spans="1:26" s="38" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="104" t="s">
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="99"/>
-      <c r="S15" s="99"/>
-      <c r="U15" s="98"/>
-      <c r="V15" s="97"/>
-      <c r="W15" s="133"/>
-      <c r="X15" s="132"/>
-      <c r="Y15" s="94">
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="U15" s="121"/>
+      <c r="V15" s="122"/>
+      <c r="W15" s="142"/>
+      <c r="X15" s="92"/>
+      <c r="Y15" s="60">
         <v>1</v>
       </c>
-      <c r="Z15" s="131"/>
+      <c r="Z15" s="91"/>
     </row>
-    <row r="16" spans="1:26" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="117"/>
-      <c r="B16" s="130" t="s">
+    <row r="16" spans="1:26" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="80"/>
+      <c r="B16" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129" t="s">
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="128" t="s">
+      <c r="F16" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="127" t="s">
+      <c r="G16" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="127" t="s">
+      <c r="H16" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="126" t="s">
+      <c r="I16" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="56"/>
-      <c r="K16" s="125" t="s">
+      <c r="J16" s="49"/>
+      <c r="K16" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="M16" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="N16" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="O16" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="P16" s="124" t="s">
+      <c r="L16" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="124" t="s">
+      <c r="Q16" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="R16" s="123" t="s">
+      <c r="R16" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="S16" s="122" t="s">
+      <c r="S16" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="U16" s="121" t="s">
+      <c r="U16" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="V16" s="120"/>
-      <c r="W16" s="119"/>
-      <c r="X16" s="118"/>
+      <c r="V16" s="144"/>
+      <c r="W16" s="145"/>
+      <c r="X16" s="81"/>
       <c r="Y16" s="5"/>
     </row>
-    <row r="17" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="117"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="51"/>
-      <c r="U17" s="50" t="s">
+    <row r="17" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="80"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="44"/>
+      <c r="U17" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="V17" s="49" t="s">
+      <c r="V17" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="W17" s="48" t="s">
+      <c r="W17" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="X17" s="47" t="s">
+      <c r="X17" s="40" t="s">
         <v>15</v>
       </c>
       <c r="Y17" s="5"/>
     </row>
-    <row r="18" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="44">
+    <row r="18" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="109">
         <v>1</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="37">
         <v>1</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="37">
         <v>1</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="37">
         <v>674</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="35">
         <v>57</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="34">
         <v>1</v>
       </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="36">
+      <c r="K18" s="33">
         <v>200</v>
       </c>
-      <c r="L18" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="N18" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="O18" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="P18" s="35">
+      <c r="L18" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" s="32">
         <v>1</v>
       </c>
-      <c r="Q18" s="34">
+      <c r="Q18" s="31">
         <v>1.5</v>
       </c>
-      <c r="R18" s="33">
+      <c r="R18" s="30">
         <v>202.5</v>
       </c>
-      <c r="S18" s="10" t="s">
+      <c r="S18" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="U18" s="46" t="s">
+      <c r="U18" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="V18" s="22">
+      <c r="V18" s="20">
         <v>2.5</v>
       </c>
-      <c r="W18" s="21">
+      <c r="W18" s="19">
         <v>200</v>
       </c>
-      <c r="X18" s="20">
+      <c r="X18" s="18">
         <v>1</v>
       </c>
       <c r="Y18" s="5"/>
     </row>
-    <row r="19" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="43"/>
-      <c r="C19" s="31">
+    <row r="19" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="110"/>
+      <c r="C19" s="29">
         <v>1</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="29">
         <v>1</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="29">
         <v>381</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="27">
         <v>62</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="26">
         <v>1</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="27">
+      <c r="K19" s="25">
         <v>200</v>
       </c>
-      <c r="L19" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="M19" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="N19" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O19" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="P19" s="26">
+      <c r="L19" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" s="24">
         <v>1</v>
       </c>
-      <c r="Q19" s="25">
+      <c r="Q19" s="23">
         <v>1.5</v>
       </c>
-      <c r="R19" s="24">
+      <c r="R19" s="22">
         <v>202.5</v>
       </c>
-      <c r="S19" s="10"/>
-      <c r="U19" s="113" t="s">
+      <c r="S19" s="108"/>
+      <c r="U19" s="76" t="s">
         <v>13</v>
       </c>
       <c r="V19" s="8">
@@ -12412,121 +12412,121 @@
       </c>
       <c r="Y19" s="5"/>
     </row>
-    <row r="20" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="42"/>
-      <c r="C20" s="18">
+    <row r="20" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="111"/>
+      <c r="C20" s="17">
         <v>1</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="17">
         <v>1</v>
       </c>
-      <c r="E20" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="15" t="s">
+      <c r="E20" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="14" t="s">
         <v>0</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="N20" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O20" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="P20" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="R20" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="S20" s="10"/>
-      <c r="U20" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="V20" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="W20" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="X20" s="20">
+      <c r="K20" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="S20" s="108"/>
+      <c r="U20" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="V20" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="W20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="X20" s="18">
         <v>1</v>
       </c>
       <c r="Y20" s="5"/>
     </row>
-    <row r="21" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="44">
+    <row r="21" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="109">
         <v>2</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="37">
         <v>2</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="37">
         <v>2</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="37">
         <v>435</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="38" t="s">
+      <c r="G21" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="38">
-        <v>0</v>
-      </c>
-      <c r="I21" s="37">
+      <c r="H21" s="35">
+        <v>0</v>
+      </c>
+      <c r="I21" s="34">
         <v>0</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="36">
+      <c r="K21" s="33">
         <v>160</v>
       </c>
-      <c r="L21" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="M21" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="N21" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="O21" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="P21" s="35">
+      <c r="L21" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" s="32">
         <v>1</v>
       </c>
-      <c r="Q21" s="34">
+      <c r="Q21" s="31">
         <v>1</v>
       </c>
-      <c r="R21" s="33">
+      <c r="R21" s="30">
         <v>162</v>
       </c>
-      <c r="S21" s="10" t="s">
+      <c r="S21" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="113" t="s">
+      <c r="U21" s="76" t="s">
         <v>10</v>
       </c>
       <c r="V21" s="8">
@@ -12540,117 +12540,117 @@
       </c>
       <c r="Y21" s="5"/>
     </row>
-    <row r="22" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="43"/>
-      <c r="C22" s="31">
+    <row r="22" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="110"/>
+      <c r="C22" s="29">
         <v>2</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="29">
         <v>2</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="29">
         <v>344</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="27">
         <v>135</v>
       </c>
-      <c r="I22" s="28">
+      <c r="I22" s="26">
         <v>0.5</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="27">
+      <c r="K22" s="25">
         <v>160</v>
       </c>
-      <c r="L22" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="M22" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="N22" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O22" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="P22" s="26">
+      <c r="L22" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="P22" s="24">
         <v>1</v>
       </c>
-      <c r="Q22" s="25">
+      <c r="Q22" s="23">
         <v>1</v>
       </c>
-      <c r="R22" s="24">
+      <c r="R22" s="22">
         <v>162</v>
       </c>
-      <c r="S22" s="10"/>
-      <c r="U22" s="46" t="s">
+      <c r="S22" s="108"/>
+      <c r="U22" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="V22" s="22">
+      <c r="V22" s="20">
         <v>2</v>
       </c>
-      <c r="W22" s="21">
+      <c r="W22" s="19">
         <v>160</v>
       </c>
-      <c r="X22" s="20">
+      <c r="X22" s="18">
         <v>2</v>
       </c>
       <c r="Y22" s="5"/>
     </row>
-    <row r="23" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="42"/>
-      <c r="C23" s="18">
+    <row r="23" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="111"/>
+      <c r="C23" s="17">
         <v>2</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="17">
         <v>2</v>
       </c>
-      <c r="E23" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I23" s="15" t="s">
+      <c r="E23" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="14" t="s">
         <v>0</v>
       </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="N23" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O23" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="P23" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="R23" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="S23" s="10"/>
-      <c r="U23" s="113" t="s">
+      <c r="K23" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="S23" s="108"/>
+      <c r="U23" s="76" t="s">
         <v>0</v>
       </c>
       <c r="V23" s="8" t="s">
@@ -12664,123 +12664,123 @@
       </c>
       <c r="Y23" s="5"/>
     </row>
-    <row r="24" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="41">
+    <row r="24" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="105">
         <v>3</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C24" s="37">
         <v>3</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="37">
         <v>3</v>
       </c>
-      <c r="E24" s="40">
+      <c r="E24" s="37">
         <v>690</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="38" t="s">
+      <c r="G24" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="35">
         <v>322</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I24" s="34">
         <v>0</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="36">
+      <c r="K24" s="33">
         <v>128</v>
       </c>
-      <c r="L24" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="M24" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="N24" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="O24" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="P24" s="35">
+      <c r="L24" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N24" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="O24" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="P24" s="32">
         <v>1</v>
       </c>
-      <c r="Q24" s="34">
+      <c r="Q24" s="31">
         <v>1</v>
       </c>
-      <c r="R24" s="33">
+      <c r="R24" s="30">
         <v>130</v>
       </c>
-      <c r="S24" s="10" t="s">
+      <c r="S24" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="U24" s="46" t="s">
+      <c r="U24" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="V24" s="22">
+      <c r="V24" s="20">
         <v>2</v>
       </c>
-      <c r="W24" s="21">
+      <c r="W24" s="19">
         <v>128</v>
       </c>
-      <c r="X24" s="20">
+      <c r="X24" s="18">
         <v>3</v>
       </c>
       <c r="Y24" s="5"/>
     </row>
-    <row r="25" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="32"/>
-      <c r="C25" s="31">
+    <row r="25" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="106"/>
+      <c r="C25" s="29">
         <v>3</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="29">
         <v>3</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="29">
         <v>321</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="27">
         <v>213</v>
       </c>
-      <c r="I25" s="28">
+      <c r="I25" s="26">
         <v>0</v>
       </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="27">
+      <c r="K25" s="25">
         <v>128</v>
       </c>
-      <c r="L25" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="M25" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="N25" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O25" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="P25" s="26">
+      <c r="L25" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N25" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O25" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="P25" s="24">
         <v>1</v>
       </c>
-      <c r="Q25" s="25">
+      <c r="Q25" s="23">
         <v>1</v>
       </c>
-      <c r="R25" s="24">
+      <c r="R25" s="22">
         <v>130</v>
       </c>
-      <c r="S25" s="10"/>
-      <c r="U25" s="113" t="s">
+      <c r="S25" s="108"/>
+      <c r="U25" s="76" t="s">
         <v>7</v>
       </c>
       <c r="V25" s="8">
@@ -12794,121 +12794,121 @@
       </c>
       <c r="Y25" s="5"/>
     </row>
-    <row r="26" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="19"/>
-      <c r="C26" s="18">
+    <row r="26" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="107"/>
+      <c r="C26" s="17">
         <v>3</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="17">
         <v>3</v>
       </c>
-      <c r="E26" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" s="15" t="s">
+      <c r="E26" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="14" t="s">
         <v>0</v>
       </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="N26" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="P26" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="R26" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="S26" s="10"/>
-      <c r="U26" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="V26" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="W26" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="X26" s="20">
+      <c r="K26" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P26" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="S26" s="108"/>
+      <c r="U26" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="V26" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="W26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="X26" s="18">
         <v>3</v>
       </c>
       <c r="Y26" s="5"/>
     </row>
-    <row r="27" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="41">
+    <row r="27" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="105">
         <v>4</v>
       </c>
-      <c r="C27" s="40">
+      <c r="C27" s="37">
         <v>4</v>
       </c>
-      <c r="D27" s="40">
+      <c r="D27" s="37">
         <v>4</v>
       </c>
-      <c r="E27" s="40">
+      <c r="E27" s="37">
         <v>1081</v>
       </c>
-      <c r="F27" s="39" t="s">
+      <c r="F27" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="38" t="s">
+      <c r="G27" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="38">
+      <c r="H27" s="35">
         <v>63</v>
       </c>
-      <c r="I27" s="37">
+      <c r="I27" s="34">
         <v>1</v>
       </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="36">
+      <c r="K27" s="33">
         <v>112</v>
       </c>
-      <c r="L27" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="M27" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="N27" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="O27" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="P27" s="35">
+      <c r="L27" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N27" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="O27" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="P27" s="32">
         <v>1</v>
       </c>
-      <c r="Q27" s="34">
-        <v>0</v>
-      </c>
-      <c r="R27" s="33">
+      <c r="Q27" s="31">
+        <v>0</v>
+      </c>
+      <c r="R27" s="30">
         <v>113</v>
       </c>
-      <c r="S27" s="10" t="s">
+      <c r="S27" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="U27" s="113" t="s">
+      <c r="U27" s="76" t="s">
         <v>12</v>
       </c>
       <c r="V27" s="8">
@@ -12922,117 +12922,117 @@
       </c>
       <c r="Y27" s="5"/>
     </row>
-    <row r="28" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="32"/>
-      <c r="C28" s="31">
+    <row r="28" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="106"/>
+      <c r="C28" s="29">
         <v>4</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="29">
         <v>4</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="29">
         <v>1143</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H28" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" s="28" t="s">
+      <c r="H28" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="26" t="s">
         <v>0</v>
       </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="27">
+      <c r="K28" s="25">
         <v>112</v>
       </c>
-      <c r="L28" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="M28" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="N28" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O28" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="P28" s="26">
+      <c r="L28" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N28" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O28" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="P28" s="24">
         <v>1</v>
       </c>
-      <c r="Q28" s="25">
-        <v>0</v>
-      </c>
-      <c r="R28" s="24">
+      <c r="Q28" s="23">
+        <v>0</v>
+      </c>
+      <c r="R28" s="22">
         <v>113</v>
       </c>
-      <c r="S28" s="10"/>
-      <c r="U28" s="116" t="s">
+      <c r="S28" s="108"/>
+      <c r="U28" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="V28" s="115">
+      <c r="V28" s="78">
         <v>1</v>
       </c>
-      <c r="W28" s="114">
+      <c r="W28" s="77">
         <v>112</v>
       </c>
-      <c r="X28" s="20">
+      <c r="X28" s="18">
         <v>4</v>
       </c>
       <c r="Y28" s="5"/>
     </row>
-    <row r="29" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="19"/>
-      <c r="C29" s="18">
+    <row r="29" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="107"/>
+      <c r="C29" s="17">
         <v>4</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="17">
         <v>4</v>
       </c>
-      <c r="E29" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" s="15" t="s">
+      <c r="E29" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="14" t="s">
         <v>0</v>
       </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="N29" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O29" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="P29" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="R29" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="S29" s="10"/>
-      <c r="U29" s="113" t="s">
+      <c r="K29" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O29" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P29" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="S29" s="108"/>
+      <c r="U29" s="76" t="s">
         <v>0</v>
       </c>
       <c r="V29" s="8" t="s">
@@ -13046,26 +13046,26 @@
       </c>
       <c r="Y29" s="5"/>
     </row>
-    <row r="30" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="112"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112" t="s">
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75" t="s">
         <v>0</v>
       </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="110"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="109"/>
-      <c r="N30" s="109"/>
-      <c r="O30" s="109"/>
-      <c r="P30" s="109"/>
-      <c r="Q30" s="109"/>
-      <c r="R30" s="108"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="73"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="71"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
@@ -13082,38 +13082,38 @@
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
     </row>
-    <row r="31" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="107" t="s">
+      <c r="B31" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="104" t="s">
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="103"/>
-      <c r="I31" s="102" t="s">
+      <c r="H31" s="66"/>
+      <c r="I31" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="J31" s="101"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="100"/>
-      <c r="M31" s="100"/>
-      <c r="N31" s="100"/>
-      <c r="O31" s="100"/>
-      <c r="P31" s="100"/>
-      <c r="Q31" s="100"/>
-      <c r="R31" s="99"/>
-      <c r="S31" s="99"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="98"/>
-      <c r="V31" s="97"/>
-      <c r="W31" s="96"/>
-      <c r="X31" s="95"/>
-      <c r="Y31" s="94">
+      <c r="J31" s="64"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="62"/>
+      <c r="S31" s="62"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="121"/>
+      <c r="V31" s="122"/>
+      <c r="W31" s="123"/>
+      <c r="X31" s="61"/>
+      <c r="Y31" s="60">
         <v>2</v>
       </c>
       <c r="AA31" s="1"/>
@@ -13125,63 +13125,63 @@
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
     </row>
-    <row r="32" spans="1:34" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="90" t="s">
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="93" t="s">
+      <c r="F32" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="90" t="s">
+      <c r="G32" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="H32" s="90" t="s">
+      <c r="H32" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="I32" s="92" t="s">
+      <c r="I32" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="J32" s="81"/>
-      <c r="K32" s="91" t="s">
+      <c r="J32" s="58"/>
+      <c r="K32" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="M32" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="N32" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="O32" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="P32" s="90" t="s">
+      <c r="L32" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="M32" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="N32" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="O32" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="P32" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="R32" s="89" t="s">
+      <c r="Q32" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="R32" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="S32" s="88" t="s">
+      <c r="S32" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="T32" s="45"/>
-      <c r="U32" s="87" t="s">
+      <c r="T32" s="38"/>
+      <c r="U32" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="V32" s="86"/>
-      <c r="W32" s="85"/>
-      <c r="X32" s="51"/>
+      <c r="V32" s="134"/>
+      <c r="W32" s="135"/>
+      <c r="X32" s="44"/>
       <c r="Y32" s="5"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
@@ -13192,43 +13192,43 @@
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
     </row>
-    <row r="33" spans="1:34" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="M33" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="N33" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="O33" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="P33" s="79" t="s">
+      <c r="B33" s="125"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="125"/>
+      <c r="L33" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="M33" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="N33" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="O33" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="P33" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="R33" s="78"/>
-      <c r="S33" s="77"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="76"/>
-      <c r="V33" s="75"/>
-      <c r="W33" s="74"/>
-      <c r="X33" s="73"/>
+      <c r="Q33" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="R33" s="113"/>
+      <c r="S33" s="116"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="136"/>
+      <c r="V33" s="137"/>
+      <c r="W33" s="138"/>
+      <c r="X33" s="57"/>
       <c r="Y33" s="5"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
@@ -13239,43 +13239,43 @@
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
     </row>
-    <row r="34" spans="1:34" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="M34" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="N34" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="O34" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="P34" s="79" t="s">
+      <c r="B34" s="125"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="130"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="125"/>
+      <c r="L34" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="M34" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="N34" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="O34" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="P34" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="R34" s="78"/>
-      <c r="S34" s="77"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="76"/>
-      <c r="V34" s="75"/>
-      <c r="W34" s="74"/>
-      <c r="X34" s="73"/>
+      <c r="Q34" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="R34" s="113"/>
+      <c r="S34" s="116"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="136"/>
+      <c r="V34" s="137"/>
+      <c r="W34" s="138"/>
+      <c r="X34" s="57"/>
       <c r="Y34" s="5"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
@@ -13286,194 +13286,194 @@
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
     </row>
-    <row r="35" spans="1:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="69"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="M35" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="N35" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="O35" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="P35" s="68" t="s">
+    <row r="35" spans="1:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="126"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="120"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="129"/>
+      <c r="I35" s="114"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="126"/>
+      <c r="L35" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="O35" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="P35" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="R35" s="67"/>
-      <c r="S35" s="66"/>
-      <c r="U35" s="65"/>
-      <c r="V35" s="64"/>
-      <c r="W35" s="63"/>
-      <c r="X35" s="62"/>
+      <c r="Q35" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="R35" s="114"/>
+      <c r="S35" s="117"/>
+      <c r="U35" s="139"/>
+      <c r="V35" s="140"/>
+      <c r="W35" s="141"/>
+      <c r="X35" s="55"/>
       <c r="Y35" s="5"/>
     </row>
-    <row r="36" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="61"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="51"/>
-      <c r="U36" s="50" t="s">
+    <row r="36" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="54"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="44"/>
+      <c r="U36" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="V36" s="49" t="s">
+      <c r="V36" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="W36" s="48" t="s">
+      <c r="W36" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="X36" s="47" t="s">
+      <c r="X36" s="40" t="s">
         <v>15</v>
       </c>
       <c r="Y36" s="5"/>
     </row>
-    <row r="37" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="44">
+    <row r="37" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="109">
         <v>1</v>
       </c>
-      <c r="C37" s="40">
+      <c r="C37" s="37">
         <v>1</v>
       </c>
-      <c r="D37" s="40">
-        <v>0</v>
-      </c>
-      <c r="E37" s="40">
+      <c r="D37" s="37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="37">
         <v>674</v>
       </c>
-      <c r="F37" s="39" t="s">
+      <c r="F37" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="38" t="s">
+      <c r="G37" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H37" s="38">
+      <c r="H37" s="35">
         <v>57</v>
       </c>
-      <c r="I37" s="37">
+      <c r="I37" s="34">
         <v>1</v>
       </c>
       <c r="J37" s="2"/>
-      <c r="K37" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="L37" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="M37" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="N37" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="O37" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="P37" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="R37" s="33">
-        <v>0</v>
-      </c>
-      <c r="S37" s="10" t="s">
+      <c r="K37" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M37" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N37" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="O37" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="P37" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="R37" s="30">
+        <v>0</v>
+      </c>
+      <c r="S37" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="U37" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="V37" s="22">
-        <v>0</v>
-      </c>
-      <c r="W37" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="X37" s="20" t="s">
+      <c r="U37" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="V37" s="20">
+        <v>0</v>
+      </c>
+      <c r="W37" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="X37" s="18" t="s">
         <v>0</v>
       </c>
       <c r="Y37" s="5"/>
     </row>
-    <row r="38" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="43"/>
-      <c r="C38" s="31">
+    <row r="38" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="110"/>
+      <c r="C38" s="29">
         <v>1</v>
       </c>
-      <c r="D38" s="31">
-        <v>0</v>
-      </c>
-      <c r="E38" s="31">
+      <c r="D38" s="29">
+        <v>0</v>
+      </c>
+      <c r="E38" s="29">
         <v>381</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="29" t="s">
+      <c r="G38" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H38" s="29">
+      <c r="H38" s="27">
         <v>62</v>
       </c>
-      <c r="I38" s="28">
+      <c r="I38" s="26">
         <v>1</v>
       </c>
       <c r="J38" s="2"/>
-      <c r="K38" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="L38" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="M38" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="N38" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O38" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="P38" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="R38" s="24">
-        <v>0</v>
-      </c>
-      <c r="S38" s="10"/>
+      <c r="K38" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L38" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M38" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N38" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O38" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="P38" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="R38" s="22">
+        <v>0</v>
+      </c>
+      <c r="S38" s="108"/>
       <c r="U38" s="9" t="s">
         <v>0</v>
       </c>
@@ -13488,120 +13488,120 @@
       </c>
       <c r="Y38" s="5"/>
     </row>
-    <row r="39" spans="1:34" s="45" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="42"/>
-      <c r="C39" s="18">
+    <row r="39" spans="1:34" s="38" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="111"/>
+      <c r="C39" s="17">
         <v>1</v>
       </c>
-      <c r="D39" s="18">
-        <v>0</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I39" s="15" t="s">
+      <c r="D39" s="17">
+        <v>0</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="14" t="s">
         <v>0</v>
       </c>
       <c r="J39" s="2"/>
-      <c r="K39" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L39" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="M39" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="N39" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O39" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="P39" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="R39" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="S39" s="10"/>
+      <c r="K39" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O39" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P39" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="R39" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="S39" s="108"/>
       <c r="T39" s="1"/>
-      <c r="U39" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="V39" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="W39" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="X39" s="20" t="s">
+      <c r="U39" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="V39" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="W39" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="X39" s="18" t="s">
         <v>0</v>
       </c>
       <c r="Y39" s="5"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="44">
+    <row r="40" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="109">
         <v>2</v>
       </c>
-      <c r="C40" s="40">
+      <c r="C40" s="37">
         <v>2</v>
       </c>
-      <c r="D40" s="40">
-        <v>0</v>
-      </c>
-      <c r="E40" s="40">
+      <c r="D40" s="37">
+        <v>0</v>
+      </c>
+      <c r="E40" s="37">
         <v>1081</v>
       </c>
-      <c r="F40" s="39" t="s">
+      <c r="F40" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="38" t="s">
+      <c r="G40" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H40" s="38">
+      <c r="H40" s="35">
         <v>63</v>
       </c>
-      <c r="I40" s="37">
+      <c r="I40" s="34">
         <v>1</v>
       </c>
       <c r="J40" s="2"/>
-      <c r="K40" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="L40" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="M40" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="N40" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="O40" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="P40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="R40" s="33">
-        <v>0</v>
-      </c>
-      <c r="S40" s="10" t="s">
+      <c r="K40" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L40" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M40" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N40" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="O40" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="P40" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="R40" s="30">
+        <v>0</v>
+      </c>
+      <c r="S40" s="108" t="s">
         <v>4</v>
       </c>
       <c r="U40" s="9" t="s">
@@ -13618,116 +13618,116 @@
       </c>
       <c r="Y40" s="5"/>
     </row>
-    <row r="41" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="43"/>
-      <c r="C41" s="31">
+    <row r="41" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="110"/>
+      <c r="C41" s="29">
         <v>2</v>
       </c>
-      <c r="D41" s="31">
-        <v>0</v>
-      </c>
-      <c r="E41" s="31">
+      <c r="D41" s="29">
+        <v>0</v>
+      </c>
+      <c r="E41" s="29">
         <v>1143</v>
       </c>
-      <c r="F41" s="30" t="s">
+      <c r="F41" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="H41" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="I41" s="28" t="s">
+      <c r="G41" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" s="26" t="s">
         <v>0</v>
       </c>
       <c r="J41" s="2"/>
-      <c r="K41" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="L41" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="M41" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="N41" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O41" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="P41" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="R41" s="24">
-        <v>0</v>
-      </c>
-      <c r="S41" s="10"/>
-      <c r="U41" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="V41" s="22">
-        <v>0</v>
-      </c>
-      <c r="W41" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="X41" s="20" t="s">
+      <c r="K41" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L41" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M41" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N41" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O41" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="P41" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="R41" s="22">
+        <v>0</v>
+      </c>
+      <c r="S41" s="108"/>
+      <c r="U41" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="V41" s="20">
+        <v>0</v>
+      </c>
+      <c r="W41" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="X41" s="18" t="s">
         <v>0</v>
       </c>
       <c r="Y41" s="5"/>
     </row>
-    <row r="42" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="42"/>
-      <c r="C42" s="18">
+    <row r="42" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="111"/>
+      <c r="C42" s="17">
         <v>2</v>
       </c>
-      <c r="D42" s="18">
-        <v>0</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H42" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I42" s="15" t="s">
+      <c r="D42" s="17">
+        <v>0</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="16"/>
+      <c r="G42" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I42" s="14" t="s">
         <v>0</v>
       </c>
       <c r="J42" s="2"/>
-      <c r="K42" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L42" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="M42" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="N42" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O42" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="P42" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="R42" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="S42" s="10"/>
+      <c r="K42" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O42" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P42" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="R42" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="S42" s="108"/>
       <c r="U42" s="9" t="s">
         <v>0</v>
       </c>
@@ -13742,122 +13742,122 @@
       </c>
       <c r="Y42" s="5"/>
     </row>
-    <row r="43" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="41">
+    <row r="43" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="105">
         <v>3</v>
       </c>
-      <c r="C43" s="40">
+      <c r="C43" s="37">
         <v>3</v>
       </c>
-      <c r="D43" s="40">
-        <v>0</v>
-      </c>
-      <c r="E43" s="40">
+      <c r="D43" s="37">
+        <v>0</v>
+      </c>
+      <c r="E43" s="37">
         <v>435</v>
       </c>
-      <c r="F43" s="39" t="s">
+      <c r="F43" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="38" t="s">
+      <c r="G43" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H43" s="38">
-        <v>0</v>
-      </c>
-      <c r="I43" s="37">
+      <c r="H43" s="35">
+        <v>0</v>
+      </c>
+      <c r="I43" s="34">
         <v>0</v>
       </c>
       <c r="J43" s="2"/>
-      <c r="K43" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="L43" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="M43" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="N43" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="O43" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="P43" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="R43" s="33">
-        <v>0</v>
-      </c>
-      <c r="S43" s="10" t="s">
+      <c r="K43" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L43" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M43" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N43" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="O43" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="P43" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="R43" s="30">
+        <v>0</v>
+      </c>
+      <c r="S43" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="V43" s="22">
-        <v>0</v>
-      </c>
-      <c r="W43" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="X43" s="20" t="s">
+      <c r="U43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="V43" s="20">
+        <v>0</v>
+      </c>
+      <c r="W43" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="X43" s="18" t="s">
         <v>0</v>
       </c>
       <c r="Y43" s="5"/>
     </row>
-    <row r="44" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="32"/>
-      <c r="C44" s="31">
+    <row r="44" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="106"/>
+      <c r="C44" s="29">
         <v>3</v>
       </c>
-      <c r="D44" s="31">
-        <v>0</v>
-      </c>
-      <c r="E44" s="31">
+      <c r="D44" s="29">
+        <v>0</v>
+      </c>
+      <c r="E44" s="29">
         <v>344</v>
       </c>
-      <c r="F44" s="30" t="s">
+      <c r="F44" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="29" t="s">
+      <c r="G44" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H44" s="29">
+      <c r="H44" s="27">
         <v>135</v>
       </c>
-      <c r="I44" s="28">
+      <c r="I44" s="26">
         <v>0.5</v>
       </c>
       <c r="J44" s="2"/>
-      <c r="K44" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="L44" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="M44" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="N44" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O44" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="P44" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="R44" s="24">
-        <v>0</v>
-      </c>
-      <c r="S44" s="10"/>
+      <c r="K44" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L44" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M44" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N44" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O44" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="P44" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="R44" s="22">
+        <v>0</v>
+      </c>
+      <c r="S44" s="108"/>
       <c r="U44" s="9" t="s">
         <v>0</v>
       </c>
@@ -13872,118 +13872,118 @@
       </c>
       <c r="Y44" s="5"/>
     </row>
-    <row r="45" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="19"/>
-      <c r="C45" s="18">
+    <row r="45" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="107"/>
+      <c r="C45" s="17">
         <v>3</v>
       </c>
-      <c r="D45" s="18">
-        <v>0</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F45" s="17"/>
-      <c r="G45" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H45" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I45" s="15" t="s">
+      <c r="D45" s="17">
+        <v>0</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="16"/>
+      <c r="G45" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45" s="14" t="s">
         <v>0</v>
       </c>
       <c r="J45" s="2"/>
-      <c r="K45" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L45" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="M45" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="N45" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O45" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="P45" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="R45" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="S45" s="10"/>
-      <c r="U45" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="V45" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="W45" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="X45" s="20" t="s">
+      <c r="K45" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O45" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P45" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="R45" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="S45" s="108"/>
+      <c r="U45" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="V45" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="W45" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="X45" s="18" t="s">
         <v>0</v>
       </c>
       <c r="Y45" s="5"/>
     </row>
-    <row r="46" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="41">
+    <row r="46" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="105">
         <v>4</v>
       </c>
-      <c r="C46" s="40">
+      <c r="C46" s="37">
         <v>4</v>
       </c>
-      <c r="D46" s="40">
-        <v>0</v>
-      </c>
-      <c r="E46" s="40">
+      <c r="D46" s="37">
+        <v>0</v>
+      </c>
+      <c r="E46" s="37">
         <v>690</v>
       </c>
-      <c r="F46" s="39" t="s">
+      <c r="F46" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="38" t="s">
+      <c r="G46" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H46" s="38">
+      <c r="H46" s="35">
         <v>322</v>
       </c>
-      <c r="I46" s="37">
+      <c r="I46" s="34">
         <v>0</v>
       </c>
       <c r="J46" s="2"/>
-      <c r="K46" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="L46" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="M46" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="N46" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="O46" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="P46" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="R46" s="33">
-        <v>0</v>
-      </c>
-      <c r="S46" s="10" t="s">
+      <c r="K46" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L46" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M46" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N46" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="O46" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="P46" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="R46" s="30">
+        <v>0</v>
+      </c>
+      <c r="S46" s="108" t="s">
         <v>4</v>
       </c>
       <c r="U46" s="9" t="s">
@@ -14000,116 +14000,116 @@
       </c>
       <c r="Y46" s="5"/>
     </row>
-    <row r="47" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="32"/>
-      <c r="C47" s="31">
+    <row r="47" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="106"/>
+      <c r="C47" s="29">
         <v>4</v>
       </c>
-      <c r="D47" s="31">
-        <v>0</v>
-      </c>
-      <c r="E47" s="31">
+      <c r="D47" s="29">
+        <v>0</v>
+      </c>
+      <c r="E47" s="29">
         <v>321</v>
       </c>
-      <c r="F47" s="30" t="s">
+      <c r="F47" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="29" t="s">
+      <c r="G47" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H47" s="29">
+      <c r="H47" s="27">
         <v>213</v>
       </c>
-      <c r="I47" s="28">
+      <c r="I47" s="26">
         <v>0</v>
       </c>
       <c r="J47" s="2"/>
-      <c r="K47" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="L47" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="M47" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="N47" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O47" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="P47" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="R47" s="24">
-        <v>0</v>
-      </c>
-      <c r="S47" s="10"/>
-      <c r="U47" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="V47" s="22">
-        <v>0</v>
-      </c>
-      <c r="W47" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="X47" s="20" t="s">
+      <c r="K47" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L47" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M47" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N47" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O47" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="P47" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="R47" s="22">
+        <v>0</v>
+      </c>
+      <c r="S47" s="108"/>
+      <c r="U47" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="V47" s="20">
+        <v>0</v>
+      </c>
+      <c r="W47" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="X47" s="18" t="s">
         <v>0</v>
       </c>
       <c r="Y47" s="5"/>
     </row>
-    <row r="48" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="19"/>
-      <c r="C48" s="18">
+    <row r="48" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="107"/>
+      <c r="C48" s="17">
         <v>4</v>
       </c>
-      <c r="D48" s="18">
-        <v>0</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F48" s="17"/>
-      <c r="G48" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I48" s="15" t="s">
+      <c r="D48" s="17">
+        <v>0</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" s="14" t="s">
         <v>0</v>
       </c>
       <c r="J48" s="2"/>
-      <c r="K48" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L48" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="M48" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="N48" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O48" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="P48" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="R48" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="S48" s="10"/>
+      <c r="K48" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O48" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P48" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="R48" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="S48" s="108"/>
       <c r="U48" s="9" t="s">
         <v>0</v>
       </c>
@@ -14124,122 +14124,122 @@
       </c>
       <c r="Y48" s="5"/>
     </row>
-    <row r="49" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="41">
+    <row r="49" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="105">
         <v>5</v>
       </c>
-      <c r="C49" s="40">
+      <c r="C49" s="37">
         <v>5</v>
       </c>
-      <c r="D49" s="40">
+      <c r="D49" s="37">
         <v>5</v>
       </c>
-      <c r="E49" s="40">
+      <c r="E49" s="37">
         <v>161</v>
       </c>
-      <c r="F49" s="39" t="s">
+      <c r="F49" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G49" s="38" t="s">
+      <c r="G49" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H49" s="38">
+      <c r="H49" s="35">
         <v>77</v>
       </c>
-      <c r="I49" s="37">
+      <c r="I49" s="34">
         <v>1</v>
       </c>
       <c r="J49" s="2"/>
-      <c r="K49" s="36">
+      <c r="K49" s="33">
         <v>96</v>
       </c>
-      <c r="L49" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="M49" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="N49" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="O49" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="P49" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="R49" s="33">
+      <c r="L49" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M49" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N49" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="O49" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="P49" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="R49" s="30">
         <v>96</v>
       </c>
-      <c r="S49" s="10" t="s">
+      <c r="S49" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="U49" s="23" t="s">
+      <c r="U49" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="V49" s="22">
-        <v>0</v>
-      </c>
-      <c r="W49" s="21">
+      <c r="V49" s="20">
+        <v>0</v>
+      </c>
+      <c r="W49" s="19">
         <v>96</v>
       </c>
-      <c r="X49" s="20">
+      <c r="X49" s="18">
         <v>5</v>
       </c>
       <c r="Y49" s="5"/>
     </row>
-    <row r="50" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="32"/>
-      <c r="C50" s="31">
+    <row r="50" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="106"/>
+      <c r="C50" s="29">
         <v>5</v>
       </c>
-      <c r="D50" s="31">
+      <c r="D50" s="29">
         <v>5</v>
       </c>
-      <c r="E50" s="31">
+      <c r="E50" s="29">
         <v>621</v>
       </c>
-      <c r="F50" s="30" t="s">
+      <c r="F50" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G50" s="29" t="s">
+      <c r="G50" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H50" s="29">
+      <c r="H50" s="27">
         <v>283</v>
       </c>
-      <c r="I50" s="28">
+      <c r="I50" s="26">
         <v>0</v>
       </c>
       <c r="J50" s="2"/>
-      <c r="K50" s="27">
+      <c r="K50" s="25">
         <v>96</v>
       </c>
-      <c r="L50" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="M50" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="N50" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O50" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="P50" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="R50" s="24">
+      <c r="L50" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M50" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N50" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O50" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="P50" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="R50" s="22">
         <v>96</v>
       </c>
-      <c r="S50" s="10"/>
+      <c r="S50" s="108"/>
       <c r="U50" s="9" t="s">
         <v>5</v>
       </c>
@@ -14254,64 +14254,64 @@
       </c>
       <c r="Y50" s="5"/>
     </row>
-    <row r="51" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="18">
+      <c r="B51" s="107"/>
+      <c r="C51" s="17">
         <v>5</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="17">
         <v>5</v>
       </c>
-      <c r="E51" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F51" s="17"/>
-      <c r="G51" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H51" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="K51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L51" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="M51" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="N51" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O51" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="P51" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="R51" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="S51" s="10"/>
+      <c r="E51" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="16"/>
+      <c r="G51" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O51" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P51" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="R51" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="S51" s="108"/>
       <c r="T51" s="1"/>
-      <c r="U51" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="V51" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="W51" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="X51" s="20">
+      <c r="U51" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="V51" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="W51" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="X51" s="18">
         <v>5</v>
       </c>
       <c r="Y51" s="5"/>
@@ -14324,57 +14324,57 @@
       <c r="AG51" s="1"/>
       <c r="AH51" s="1"/>
     </row>
-    <row r="52" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
-      <c r="B52" s="41">
+      <c r="B52" s="105">
         <v>6</v>
       </c>
-      <c r="C52" s="40">
+      <c r="C52" s="37">
         <v>6</v>
       </c>
-      <c r="D52" s="40">
+      <c r="D52" s="37">
         <v>6</v>
       </c>
-      <c r="E52" s="40">
+      <c r="E52" s="37">
         <v>1101</v>
       </c>
-      <c r="F52" s="39" t="s">
+      <c r="F52" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="38" t="s">
+      <c r="G52" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H52" s="38">
+      <c r="H52" s="35">
         <v>303</v>
       </c>
-      <c r="I52" s="37">
-        <v>0</v>
-      </c>
-      <c r="K52" s="36">
+      <c r="I52" s="34">
+        <v>0</v>
+      </c>
+      <c r="K52" s="33">
         <v>80</v>
       </c>
-      <c r="L52" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="M52" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="N52" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="O52" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="P52" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="R52" s="33">
+      <c r="L52" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M52" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N52" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="O52" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="P52" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="R52" s="30">
         <v>80</v>
       </c>
-      <c r="S52" s="10" t="s">
+      <c r="S52" s="108" t="s">
         <v>4</v>
       </c>
       <c r="T52" s="1"/>
@@ -14400,66 +14400,66 @@
       <c r="AG52" s="1"/>
       <c r="AH52" s="1"/>
     </row>
-    <row r="53" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="31">
+      <c r="B53" s="106"/>
+      <c r="C53" s="29">
         <v>6</v>
       </c>
-      <c r="D53" s="31">
+      <c r="D53" s="29">
         <v>6</v>
       </c>
-      <c r="E53" s="31">
+      <c r="E53" s="29">
         <v>1056</v>
       </c>
-      <c r="F53" s="30" t="s">
+      <c r="F53" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G53" s="29" t="s">
+      <c r="G53" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H53" s="29">
+      <c r="H53" s="27">
         <v>291</v>
       </c>
-      <c r="I53" s="28">
-        <v>0</v>
-      </c>
-      <c r="K53" s="27">
+      <c r="I53" s="26">
+        <v>0</v>
+      </c>
+      <c r="K53" s="25">
         <v>80</v>
       </c>
-      <c r="L53" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="M53" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="N53" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O53" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="P53" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="R53" s="24">
+      <c r="L53" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M53" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N53" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O53" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="P53" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="R53" s="22">
         <v>80</v>
       </c>
-      <c r="S53" s="10"/>
+      <c r="S53" s="108"/>
       <c r="T53" s="1"/>
-      <c r="U53" s="23" t="s">
+      <c r="U53" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="V53" s="22">
-        <v>0</v>
-      </c>
-      <c r="W53" s="21">
+      <c r="V53" s="20">
+        <v>0</v>
+      </c>
+      <c r="W53" s="19">
         <v>80</v>
       </c>
-      <c r="X53" s="20">
+      <c r="X53" s="18">
         <v>6</v>
       </c>
       <c r="Y53" s="5"/>
@@ -14472,53 +14472,53 @@
       <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
     </row>
-    <row r="54" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="18">
+      <c r="B54" s="107"/>
+      <c r="C54" s="17">
         <v>6</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D54" s="17">
         <v>6</v>
       </c>
-      <c r="E54" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F54" s="17"/>
-      <c r="G54" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H54" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I54" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="K54" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L54" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="M54" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="N54" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O54" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="P54" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="R54" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="S54" s="10"/>
+      <c r="E54" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="16"/>
+      <c r="G54" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P54" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="R54" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="S54" s="108"/>
       <c r="T54" s="1"/>
       <c r="U54" s="9" t="s">
         <v>0</v>
@@ -14545,12 +14545,41 @@
   </sheetData>
   <sheetProtection formatCells="0" selectLockedCells="1"/>
   <mergeCells count="55">
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="S52:S54"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="S46:S48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="S49:S51"/>
+    <mergeCell ref="J7:S7"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="J2:S2"/>
+    <mergeCell ref="J3:S3"/>
+    <mergeCell ref="J4:S4"/>
+    <mergeCell ref="J5:S5"/>
+    <mergeCell ref="J6:S6"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="J11:S11"/>
+    <mergeCell ref="J12:S12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:S13"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="S24:S26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="S27:S29"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="U32:W35"/>
     <mergeCell ref="B40:B42"/>
     <mergeCell ref="S40:S42"/>
     <mergeCell ref="B43:B45"/>
@@ -14565,41 +14594,12 @@
     <mergeCell ref="O32:O35"/>
     <mergeCell ref="P32:P35"/>
     <mergeCell ref="Q32:Q35"/>
-    <mergeCell ref="U31:W31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="U32:W35"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="S24:S26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="S27:S29"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="J11:S11"/>
-    <mergeCell ref="J12:S12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:S13"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="J2:S2"/>
-    <mergeCell ref="J3:S3"/>
-    <mergeCell ref="J4:S4"/>
-    <mergeCell ref="J5:S5"/>
-    <mergeCell ref="J6:S6"/>
-    <mergeCell ref="J7:S7"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="S52:S54"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="S46:S48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="S49:S51"/>
   </mergeCells>
   <conditionalFormatting sqref="U18:X29 U37:X54">
     <cfRule type="expression" dxfId="4" priority="5">
